--- a/java/jxls/excel/template.xlsx
+++ b/java/jxls/excel/template.xlsx
@@ -29,11 +29,11 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:area(lastCell="B8")</t>
+          <t>jx:area(lastCell="B4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,21 +43,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:if(condition="true" lastCell="B5" areas=["A10:B11", "C10:D11"])</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>jx:if(condition="false" lastCell="B8" areas=["A10:B11", "C10:D11"])</t>
+          <t>jx:grid(lastCell="B4" headers="gridHeaders" data="gridData" areas=["B3:B3", "B4:B4"] props="hoge,fuga,piyo" formatCells="String:D1")</t>
         </r>
       </text>
     </comment>
@@ -66,29 +52,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>a</t>
+    <t>${header}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>b</t>
+    <t>${cell}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
+    <t>sample</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -96,7 +70,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +102,29 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,13 +132,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -455,74 +482,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/java/jxls/excel/template.xlsx
+++ b/java/jxls/excel/template.xlsx
@@ -29,21 +29,8 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:area(lastCell="B4")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>jx:grid(lastCell="B4" headers="gridHeaders" data="gridData" areas=["B3:B3", "B4:B4"] props="hoge,fuga,piyo" formatCells="String:D1")</t>
+          <t>jx:area(lastCell="A1")
+jx:myCommand(value="hello" lastCell="A1")</t>
         </r>
       </text>
     </comment>
@@ -52,28 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>${header}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cell}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,29 +73,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,50 +90,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -482,34 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java/jxls/excel/template.xlsx
+++ b/java/jxls/excel/template.xlsx
@@ -25,12 +25,11 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
+            <rFont val="Consolas"/>
             <family val="3"/>
-            <charset val="128"/>
           </rPr>
           <t>jx:area(lastCell="A1")
-jx:myCommand(value="hello" lastCell="A1")</t>
+jx:if(condition="false" lastCell="A1")</t>
         </r>
       </text>
     </comment>
@@ -39,7 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,16 +66,14 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,15 +408,19 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java/jxls/excel/template.xlsx
+++ b/java/jxls/excel/template.xlsx
@@ -29,7 +29,7 @@
             <family val="3"/>
           </rPr>
           <t>jx:area(lastCell="A1")
-jx:if(condition="false" lastCell="A1")</t>
+jx:if(condition="false" lastCell="A1" areas=["A1:A1"])</t>
         </r>
       </text>
     </comment>
@@ -408,7 +408,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
